--- a/team_specific_matrix/Binghamton_B.xlsx
+++ b/team_specific_matrix/Binghamton_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1924882629107981</v>
+        <v>0.197986577181208</v>
       </c>
       <c r="C2">
-        <v>0.5586854460093896</v>
+        <v>0.5469798657718121</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1314553990610329</v>
+        <v>0.1342281879194631</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1173708920187793</v>
+        <v>0.1140939597315436</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="C3">
-        <v>0.024</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.064</v>
+        <v>0.04705882352941176</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.768</v>
+        <v>0.7764705882352941</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.136</v>
+        <v>0.1470588235294118</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03846153846153846</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6923076923076923</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2692307692307692</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04195804195804196</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02097902097902098</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="E6">
-        <v>0.006993006993006993</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="F6">
-        <v>0.06993006993006994</v>
+        <v>0.06315789473684211</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2167832167832168</v>
+        <v>0.2421052631578947</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04195804195804196</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1678321678321678</v>
+        <v>0.1736842105263158</v>
       </c>
       <c r="R6">
-        <v>0.07692307692307693</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="S6">
-        <v>0.3566433566433567</v>
+        <v>0.331578947368421</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1338028169014084</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01408450704225352</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02112676056338028</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1056338028169014</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02112676056338028</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1619718309859155</v>
+        <v>0.1584699453551913</v>
       </c>
       <c r="R7">
-        <v>0.1056338028169014</v>
+        <v>0.1038251366120219</v>
       </c>
       <c r="S7">
-        <v>0.4366197183098591</v>
+        <v>0.4480874316939891</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07712082262210797</v>
+        <v>0.0796812749003984</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01799485861182519</v>
+        <v>0.02191235059760956</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05912596401028278</v>
+        <v>0.05378486055776893</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1131105398457583</v>
+        <v>0.1135458167330677</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01542416452442159</v>
+        <v>0.01394422310756972</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1722365038560411</v>
+        <v>0.1693227091633466</v>
       </c>
       <c r="R8">
-        <v>0.1002570694087404</v>
+        <v>0.09362549800796813</v>
       </c>
       <c r="S8">
-        <v>0.4447300771208226</v>
+        <v>0.4541832669322709</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1724137931034483</v>
+        <v>0.1484375</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02298850574712644</v>
+        <v>0.0234375</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05747126436781609</v>
+        <v>0.046875</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1494252873563219</v>
+        <v>0.1328125</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03448275862068965</v>
+        <v>0.0234375</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1264367816091954</v>
+        <v>0.1484375</v>
       </c>
       <c r="R9">
-        <v>0.1379310344827586</v>
+        <v>0.1328125</v>
       </c>
       <c r="S9">
-        <v>0.2988505747126437</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1150747986191024</v>
+        <v>0.1271777003484321</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01495972382048331</v>
+        <v>0.01306620209059233</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06214039125431531</v>
+        <v>0.0627177700348432</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09781357882623705</v>
+        <v>0.10801393728223</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01611047180667434</v>
+        <v>0.01393728222996516</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2220943613348677</v>
+        <v>0.2116724738675958</v>
       </c>
       <c r="R10">
-        <v>0.09321058688147296</v>
+        <v>0.08710801393728224</v>
       </c>
       <c r="S10">
-        <v>0.378596087456847</v>
+        <v>0.3763066202090593</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1867219917012448</v>
+        <v>0.1832797427652733</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1120331950207469</v>
+        <v>0.1157556270096463</v>
       </c>
       <c r="K11">
-        <v>0.2323651452282158</v>
+        <v>0.2347266881028939</v>
       </c>
       <c r="L11">
-        <v>0.4647302904564315</v>
+        <v>0.4598070739549839</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004149377593360996</v>
+        <v>0.006430868167202572</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7094017094017094</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2307692307692308</v>
+        <v>0.2312925170068027</v>
       </c>
       <c r="K12">
-        <v>0.0170940170940171</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="L12">
-        <v>0.03418803418803419</v>
+        <v>0.0272108843537415</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.008547008547008548</v>
+        <v>0.006802721088435374</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.625</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3125</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0625</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02702702702702703</v>
+        <v>0.03191489361702127</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2027027027027027</v>
+        <v>0.1968085106382979</v>
       </c>
       <c r="I15">
-        <v>0.06081081081081081</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="J15">
-        <v>0.3175675675675675</v>
+        <v>0.3031914893617021</v>
       </c>
       <c r="K15">
-        <v>0.07432432432432433</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03378378378378379</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2837837837837838</v>
+        <v>0.2765957446808511</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02127659574468085</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1914893617021277</v>
+        <v>0.2020725388601036</v>
       </c>
       <c r="I16">
-        <v>0.05673758865248227</v>
+        <v>0.06735751295336788</v>
       </c>
       <c r="J16">
-        <v>0.2836879432624114</v>
+        <v>0.3316062176165803</v>
       </c>
       <c r="K16">
-        <v>0.1702127659574468</v>
+        <v>0.1295336787564767</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03546099290780142</v>
+        <v>0.0310880829015544</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07801418439716312</v>
+        <v>0.06735751295336788</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1631205673758865</v>
+        <v>0.1450777202072539</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01587301587301587</v>
+        <v>0.01728395061728395</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1873015873015873</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="I17">
-        <v>0.07301587301587302</v>
+        <v>0.0691358024691358</v>
       </c>
       <c r="J17">
-        <v>0.4063492063492063</v>
+        <v>0.4098765432098765</v>
       </c>
       <c r="K17">
-        <v>0.1079365079365079</v>
+        <v>0.1185185185185185</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01587301587301587</v>
+        <v>0.01728395061728395</v>
       </c>
       <c r="N17">
-        <v>0.003174603174603175</v>
+        <v>0.002469135802469136</v>
       </c>
       <c r="O17">
-        <v>0.05079365079365079</v>
+        <v>0.04691358024691358</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1396825396825397</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02547770700636943</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1974522292993631</v>
+        <v>0.1938775510204082</v>
       </c>
       <c r="I18">
-        <v>0.05095541401273886</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="J18">
-        <v>0.4140127388535032</v>
+        <v>0.3979591836734694</v>
       </c>
       <c r="K18">
-        <v>0.1082802547770701</v>
+        <v>0.08673469387755102</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01910828025477707</v>
+        <v>0.02551020408163265</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06369426751592357</v>
+        <v>0.0663265306122449</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1210191082802548</v>
+        <v>0.1377551020408163</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009729729729729729</v>
+        <v>0.01157981803143093</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2659459459459459</v>
+        <v>0.2622001654259719</v>
       </c>
       <c r="I19">
-        <v>0.04216216216216216</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="J19">
-        <v>0.3697297297297297</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="K19">
-        <v>0.1027027027027027</v>
+        <v>0.1033912324234905</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0227027027027027</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0627027027027027</v>
+        <v>0.06286186931348221</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1243243243243243</v>
+        <v>0.119106699751861</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Binghamton_B.xlsx
+++ b/team_specific_matrix/Binghamton_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.197986577181208</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C2">
-        <v>0.5469798657718121</v>
+        <v>0.5632911392405063</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006711409395973154</v>
+        <v>0.00949367088607595</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1342281879194631</v>
+        <v>0.129746835443038</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1140939597315436</v>
+        <v>0.1075949367088608</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01176470588235294</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="C3">
-        <v>0.01764705882352941</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04705882352941176</v>
+        <v>0.04324324324324325</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7764705882352941</v>
+        <v>0.7675675675675676</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1470588235294118</v>
+        <v>0.1621621621621622</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0303030303030303</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.696969696969697</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2727272727272727</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05263157894736842</v>
+        <v>0.0541871921182266</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01578947368421053</v>
+        <v>0.01970443349753695</v>
       </c>
       <c r="E6">
-        <v>0.005263157894736842</v>
+        <v>0.004926108374384237</v>
       </c>
       <c r="F6">
-        <v>0.06315789473684211</v>
+        <v>0.06403940886699508</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2421052631578947</v>
+        <v>0.2463054187192118</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04210526315789474</v>
+        <v>0.03940886699507389</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1736842105263158</v>
+        <v>0.167487684729064</v>
       </c>
       <c r="R6">
-        <v>0.07368421052631578</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="S6">
-        <v>0.331578947368421</v>
+        <v>0.3349753694581281</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1147540983606557</v>
+        <v>0.12</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01092896174863388</v>
+        <v>0.01</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02185792349726776</v>
+        <v>0.02</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1147540983606557</v>
+        <v>0.115</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0273224043715847</v>
+        <v>0.025</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1584699453551913</v>
+        <v>0.145</v>
       </c>
       <c r="R7">
-        <v>0.1038251366120219</v>
+        <v>0.1</v>
       </c>
       <c r="S7">
-        <v>0.4480874316939891</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0796812749003984</v>
+        <v>0.08052434456928839</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02191235059760956</v>
+        <v>0.02059925093632959</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05378486055776893</v>
+        <v>0.05430711610486891</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1135458167330677</v>
+        <v>0.1104868913857678</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01394422310756972</v>
+        <v>0.01310861423220974</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1693227091633466</v>
+        <v>0.1610486891385768</v>
       </c>
       <c r="R8">
-        <v>0.09362549800796813</v>
+        <v>0.09737827715355805</v>
       </c>
       <c r="S8">
-        <v>0.4541832669322709</v>
+        <v>0.4625468164794008</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1484375</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0234375</v>
+        <v>0.0272108843537415</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.046875</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1328125</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0234375</v>
+        <v>0.0272108843537415</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1484375</v>
+        <v>0.1564625850340136</v>
       </c>
       <c r="R9">
-        <v>0.1328125</v>
+        <v>0.1292517006802721</v>
       </c>
       <c r="S9">
-        <v>0.34375</v>
+        <v>0.3469387755102041</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1271777003484321</v>
+        <v>0.1238938053097345</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01306620209059233</v>
+        <v>0.01528559935639582</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0008045052292839903</v>
       </c>
       <c r="F10">
-        <v>0.0627177700348432</v>
+        <v>0.06114239742558326</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.10801393728223</v>
+        <v>0.1069991954947707</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01393728222996516</v>
+        <v>0.01528559935639582</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2116724738675958</v>
+        <v>0.2123893805309734</v>
       </c>
       <c r="R10">
-        <v>0.08710801393728224</v>
+        <v>0.08608205953338696</v>
       </c>
       <c r="S10">
-        <v>0.3763066202090593</v>
+        <v>0.3781174577634754</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1832797427652733</v>
+        <v>0.1778425655976676</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1157556270096463</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="K11">
-        <v>0.2347266881028939</v>
+        <v>0.239067055393586</v>
       </c>
       <c r="L11">
-        <v>0.4598070739549839</v>
+        <v>0.4518950437317784</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006430868167202572</v>
+        <v>0.008746355685131196</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7142857142857143</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2312925170068027</v>
+        <v>0.2138364779874214</v>
       </c>
       <c r="K12">
-        <v>0.02040816326530612</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="L12">
-        <v>0.0272108843537415</v>
+        <v>0.02515723270440252</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.006802721088435374</v>
+        <v>0.006289308176100629</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6428571428571429</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3095238095238095</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04761904761904762</v>
+        <v>0.04444444444444445</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03191489361702127</v>
+        <v>0.03431372549019608</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1968085106382979</v>
+        <v>0.2009803921568628</v>
       </c>
       <c r="I15">
-        <v>0.05319148936170213</v>
+        <v>0.05392156862745098</v>
       </c>
       <c r="J15">
-        <v>0.3031914893617021</v>
+        <v>0.303921568627451</v>
       </c>
       <c r="K15">
-        <v>0.09574468085106383</v>
+        <v>0.09313725490196079</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0425531914893617</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2765957446808511</v>
+        <v>0.2745098039215687</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02590673575129534</v>
+        <v>0.02427184466019417</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2020725388601036</v>
+        <v>0.2038834951456311</v>
       </c>
       <c r="I16">
-        <v>0.06735751295336788</v>
+        <v>0.06796116504854369</v>
       </c>
       <c r="J16">
-        <v>0.3316062176165803</v>
+        <v>0.3398058252427185</v>
       </c>
       <c r="K16">
-        <v>0.1295336787564767</v>
+        <v>0.1262135922330097</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0310880829015544</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06735751295336788</v>
+        <v>0.07281553398058252</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1450777202072539</v>
+        <v>0.1359223300970874</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01728395061728395</v>
+        <v>0.01624129930394431</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1851851851851852</v>
+        <v>0.185614849187935</v>
       </c>
       <c r="I17">
-        <v>0.0691358024691358</v>
+        <v>0.06960556844547564</v>
       </c>
       <c r="J17">
-        <v>0.4098765432098765</v>
+        <v>0.4037122969837587</v>
       </c>
       <c r="K17">
-        <v>0.1185185185185185</v>
+        <v>0.122969837587007</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01728395061728395</v>
+        <v>0.01624129930394431</v>
       </c>
       <c r="N17">
-        <v>0.002469135802469136</v>
+        <v>0.002320185614849188</v>
       </c>
       <c r="O17">
-        <v>0.04691358024691358</v>
+        <v>0.04872389791183294</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1333333333333333</v>
+        <v>0.1345707656612529</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03061224489795918</v>
+        <v>0.02843601895734597</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1938775510204082</v>
+        <v>0.1990521327014218</v>
       </c>
       <c r="I18">
-        <v>0.06122448979591837</v>
+        <v>0.07109004739336493</v>
       </c>
       <c r="J18">
-        <v>0.3979591836734694</v>
+        <v>0.3933649289099526</v>
       </c>
       <c r="K18">
-        <v>0.08673469387755102</v>
+        <v>0.08530805687203792</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02551020408163265</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0663265306122449</v>
+        <v>0.06635071090047394</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1377551020408163</v>
+        <v>0.1327014218009479</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01157981803143093</v>
+        <v>0.01213040181956027</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2622001654259719</v>
+        <v>0.2524639878695982</v>
       </c>
       <c r="I19">
-        <v>0.05376344086021505</v>
+        <v>0.05913570887035633</v>
       </c>
       <c r="J19">
-        <v>0.3655913978494624</v>
+        <v>0.3684609552691433</v>
       </c>
       <c r="K19">
-        <v>0.1033912324234905</v>
+        <v>0.1061410159211524</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02150537634408602</v>
+        <v>0.021986353297953</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0007581501137225171</v>
       </c>
       <c r="O19">
-        <v>0.06286186931348221</v>
+        <v>0.06141015921152388</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.119106699751861</v>
+        <v>0.1175132676269901</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Binghamton_B.xlsx
+++ b/team_specific_matrix/Binghamton_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.189873417721519</v>
+        <v>0.1876923076923077</v>
       </c>
       <c r="C2">
-        <v>0.5632911392405063</v>
+        <v>0.5661538461538461</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.00949367088607595</v>
+        <v>0.009230769230769232</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.129746835443038</v>
+        <v>0.1292307692307692</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1075949367088608</v>
+        <v>0.1076923076923077</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01081081081081081</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C3">
-        <v>0.01621621621621622</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04324324324324325</v>
+        <v>0.046875</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7675675675675676</v>
+        <v>0.765625</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1621621621621622</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0541871921182266</v>
+        <v>0.05213270142180094</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01970443349753695</v>
+        <v>0.01895734597156398</v>
       </c>
       <c r="E6">
-        <v>0.004926108374384237</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="F6">
-        <v>0.06403940886699508</v>
+        <v>0.07109004739336493</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2463054187192118</v>
+        <v>0.2417061611374408</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03940886699507389</v>
+        <v>0.04265402843601896</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.167487684729064</v>
+        <v>0.1658767772511848</v>
       </c>
       <c r="R6">
-        <v>0.06896551724137931</v>
+        <v>0.06635071090047394</v>
       </c>
       <c r="S6">
-        <v>0.3349753694581281</v>
+        <v>0.3364928909952606</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.12</v>
+        <v>0.1170731707317073</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.115</v>
+        <v>0.1170731707317073</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.145</v>
+        <v>0.1414634146341463</v>
       </c>
       <c r="R7">
-        <v>0.1</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="S7">
-        <v>0.465</v>
+        <v>0.4682926829268293</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08052434456928839</v>
+        <v>0.081374321880651</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02059925093632959</v>
+        <v>0.01989150090415913</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05430711610486891</v>
+        <v>0.05605786618444846</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1104868913857678</v>
+        <v>0.108499095840868</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01310861423220974</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1610486891385768</v>
+        <v>0.162748643761302</v>
       </c>
       <c r="R8">
-        <v>0.09737827715355805</v>
+        <v>0.09584086799276673</v>
       </c>
       <c r="S8">
-        <v>0.4625468164794008</v>
+        <v>0.4629294755877034</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1428571428571428</v>
+        <v>0.1437908496732026</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0272108843537415</v>
+        <v>0.0261437908496732</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04761904761904762</v>
+        <v>0.0457516339869281</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1224489795918367</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0272108843537415</v>
+        <v>0.0261437908496732</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1564625850340136</v>
+        <v>0.1699346405228758</v>
       </c>
       <c r="R9">
-        <v>0.1292517006802721</v>
+        <v>0.1241830065359477</v>
       </c>
       <c r="S9">
-        <v>0.3469387755102041</v>
+        <v>0.3464052287581699</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1238938053097345</v>
+        <v>0.1235431235431235</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01528559935639582</v>
+        <v>0.01476301476301476</v>
       </c>
       <c r="E10">
-        <v>0.0008045052292839903</v>
+        <v>0.000777000777000777</v>
       </c>
       <c r="F10">
-        <v>0.06114239742558326</v>
+        <v>0.05905205905205906</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1069991954947707</v>
+        <v>0.1064491064491064</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01528559935639582</v>
+        <v>0.01476301476301476</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2123893805309734</v>
+        <v>0.216006216006216</v>
       </c>
       <c r="R10">
-        <v>0.08608205953338696</v>
+        <v>0.08547008547008547</v>
       </c>
       <c r="S10">
-        <v>0.3781174577634754</v>
+        <v>0.3791763791763792</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1778425655976676</v>
+        <v>0.1784702549575071</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1224489795918367</v>
+        <v>0.1189801699716714</v>
       </c>
       <c r="K11">
-        <v>0.239067055393586</v>
+        <v>0.2379603399433428</v>
       </c>
       <c r="L11">
-        <v>0.4518950437317784</v>
+        <v>0.4560906515580737</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008746355685131196</v>
+        <v>0.0084985835694051</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7358490566037735</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2138364779874214</v>
+        <v>0.2181818181818182</v>
       </c>
       <c r="K12">
-        <v>0.01886792452830189</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="L12">
-        <v>0.02515723270440252</v>
+        <v>0.02424242424242424</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.006289308176100629</v>
+        <v>0.01212121212121212</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6222222222222222</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3333333333333333</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04444444444444445</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03431372549019608</v>
+        <v>0.03349282296650718</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2009803921568628</v>
+        <v>0.2009569377990431</v>
       </c>
       <c r="I15">
-        <v>0.05392156862745098</v>
+        <v>0.05741626794258373</v>
       </c>
       <c r="J15">
-        <v>0.303921568627451</v>
+        <v>0.3014354066985646</v>
       </c>
       <c r="K15">
-        <v>0.09313725490196079</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0392156862745098</v>
+        <v>0.0430622009569378</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2745098039215687</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02427184466019417</v>
+        <v>0.02358490566037736</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2038834951456311</v>
+        <v>0.2075471698113208</v>
       </c>
       <c r="I16">
-        <v>0.06796116504854369</v>
+        <v>0.07075471698113207</v>
       </c>
       <c r="J16">
-        <v>0.3398058252427185</v>
+        <v>0.330188679245283</v>
       </c>
       <c r="K16">
-        <v>0.1262135922330097</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02912621359223301</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07281553398058252</v>
+        <v>0.07075471698113207</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1359223300970874</v>
+        <v>0.1367924528301887</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01624129930394431</v>
+        <v>0.01545253863134658</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.185614849187935</v>
+        <v>0.1832229580573951</v>
       </c>
       <c r="I17">
-        <v>0.06960556844547564</v>
+        <v>0.06622516556291391</v>
       </c>
       <c r="J17">
-        <v>0.4037122969837587</v>
+        <v>0.4194260485651214</v>
       </c>
       <c r="K17">
-        <v>0.122969837587007</v>
+        <v>0.1169977924944812</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01624129930394431</v>
+        <v>0.01545253863134658</v>
       </c>
       <c r="N17">
-        <v>0.002320185614849188</v>
+        <v>0.002207505518763797</v>
       </c>
       <c r="O17">
-        <v>0.04872389791183294</v>
+        <v>0.04856512141280353</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1345707656612529</v>
+        <v>0.1324503311258278</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02843601895734597</v>
+        <v>0.02790697674418605</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1990521327014218</v>
+        <v>0.2</v>
       </c>
       <c r="I18">
-        <v>0.07109004739336493</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="J18">
-        <v>0.3933649289099526</v>
+        <v>0.386046511627907</v>
       </c>
       <c r="K18">
-        <v>0.08530805687203792</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02369668246445497</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06635071090047394</v>
+        <v>0.06511627906976744</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1327014218009479</v>
+        <v>0.1348837209302326</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01213040181956027</v>
+        <v>0.01243599122165326</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2524639878695982</v>
+        <v>0.2523774689100219</v>
       </c>
       <c r="I19">
-        <v>0.05913570887035633</v>
+        <v>0.0592538405267008</v>
       </c>
       <c r="J19">
-        <v>0.3684609552691433</v>
+        <v>0.3679590343818581</v>
       </c>
       <c r="K19">
-        <v>0.1061410159211524</v>
+        <v>0.1068032187271397</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.021986353297953</v>
+        <v>0.02194586686174104</v>
       </c>
       <c r="N19">
-        <v>0.0007581501137225171</v>
+        <v>0.000731528895391368</v>
       </c>
       <c r="O19">
-        <v>0.06141015921152388</v>
+        <v>0.06071689831748354</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1175132676269901</v>
+        <v>0.1177761521580102</v>
       </c>
     </row>
   </sheetData>
